--- a/BIS232_SCRIPT_OBJECTION_REQUEST/input_data/script/gui_map.xlsx
+++ b/BIS232_SCRIPT_OBJECTION_REQUEST/input_data/script/gui_map.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A867C2FD-C9B8-4E1B-80F8-B6A2E2331E7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97541E96-7B3A-4802-B5CC-4FEDC6A5E60F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7380" tabRatio="475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -427,21 +427,12 @@
     <t>RE Step 1 - Element</t>
   </si>
   <si>
-    <t>RE_StepOneElement</t>
-  </si>
-  <si>
     <t>RE Step 1 - Element msg</t>
   </si>
   <si>
     <t>RE Step 1 - Element div</t>
   </si>
   <si>
-    <t>RE_StepOneElementMessage</t>
-  </si>
-  <si>
-    <t>RE_StepOneElementDiv</t>
-  </si>
-  <si>
     <t>//h3[text()='Objecting Organization Information']/following-sibling::div[1]//label[text()='~val~']//ancestor::span[1]/following-sibling::input[1]/following-sibling::span[1]</t>
   </si>
   <si>
@@ -457,15 +448,6 @@
     <t>RE Step 1 - Element select div</t>
   </si>
   <si>
-    <t>RE_StepOneElementSelect</t>
-  </si>
-  <si>
-    <t>RE_StepOneElementSelectMessage</t>
-  </si>
-  <si>
-    <t>RE_StepOneElementSelectDiv</t>
-  </si>
-  <si>
     <t>//h3[text()='Objecting Organization Information']/following-sibling::div[1]//label[text()='~val~']//ancestor::span[1]/following-sibling::Select[1]</t>
   </si>
   <si>
@@ -484,15 +466,6 @@
     <t>RE Step 3 - Element select div</t>
   </si>
   <si>
-    <t>RE_StepThreeElementSelect</t>
-  </si>
-  <si>
-    <t>RE_StepThreeElementSelectMessage</t>
-  </si>
-  <si>
-    <t>RE_StepThreeElementSelectDiv</t>
-  </si>
-  <si>
     <t>//label[text()='~val~']//ancestor::div[1]/following-sibling::div[1]/Select[1]</t>
   </si>
   <si>
@@ -520,21 +493,6 @@
     <t>//input[@id='BIS232Objection_JSONData_ProductAvailabilityByReqOrg_~val~']/ancestor::div[2]/span</t>
   </si>
   <si>
-    <t>RE_StepFourElement</t>
-  </si>
-  <si>
-    <t>RE_StepFourElementMessage</t>
-  </si>
-  <si>
-    <t>RE_StepFourElementDiv</t>
-  </si>
-  <si>
-    <t>RE_StepFourElementMessage2</t>
-  </si>
-  <si>
-    <t>RE_StepFourElementDiv2</t>
-  </si>
-  <si>
     <t>//input[@id='BIS232Objection_JSONData_ProductAvailabilityByReqOrg_~val~']/ancestor::div[1]/span</t>
   </si>
   <si>
@@ -553,15 +511,6 @@
     <t>RE Step 5 - Element select msg</t>
   </si>
   <si>
-    <t>RE_StepFiveElementDiv</t>
-  </si>
-  <si>
-    <t>RE_StepFiveElementMessage</t>
-  </si>
-  <si>
-    <t>RE_StepFiveElement</t>
-  </si>
-  <si>
     <t>//input[@id='BIS232Objection_JSONData_SubmissionCertification_~val~']</t>
   </si>
   <si>
@@ -577,27 +526,9 @@
     <t>RE Step 2 - Element select msg</t>
   </si>
   <si>
-    <t>RE_StepTwoElement</t>
-  </si>
-  <si>
-    <t>RE_StepTwoElementMessage</t>
-  </si>
-  <si>
     <t>//input[@id='~val~~val1~']</t>
   </si>
   <si>
-    <t>RE_StepTwoElementDiv0</t>
-  </si>
-  <si>
-    <t>RE_StepTwoElementDiv1</t>
-  </si>
-  <si>
-    <t>RE_StepTwoElementDiv2</t>
-  </si>
-  <si>
-    <t>RE_StepTwoElementDiv3</t>
-  </si>
-  <si>
     <t>//input[@id='BIS232Objection_JSONData_ReasonForObjection_ManufacturingLocations_0__~val~']/ancestor::td[1]</t>
   </si>
   <si>
@@ -611,6 +542,75 @@
   </si>
   <si>
     <t>//input[@id='~val~~val1~']/following-sibling::span[1]</t>
+  </si>
+  <si>
+    <t>OR_StepOneElement</t>
+  </si>
+  <si>
+    <t>OR_StepOneElementMessage</t>
+  </si>
+  <si>
+    <t>OR_StepOneElementDiv</t>
+  </si>
+  <si>
+    <t>OR_StepOneElementSelect</t>
+  </si>
+  <si>
+    <t>OR_StepOneElementSelectMessage</t>
+  </si>
+  <si>
+    <t>OR_StepOneElementSelectDiv</t>
+  </si>
+  <si>
+    <t>OR_StepThreeElementSelect</t>
+  </si>
+  <si>
+    <t>OR_StepThreeElementSelectMessage</t>
+  </si>
+  <si>
+    <t>OR_StepThreeElementSelectDiv</t>
+  </si>
+  <si>
+    <t>OR_StepFourElement</t>
+  </si>
+  <si>
+    <t>OR_StepFourElementMessage</t>
+  </si>
+  <si>
+    <t>OR_StepFourElementDiv</t>
+  </si>
+  <si>
+    <t>OR_StepFourElementMessage2</t>
+  </si>
+  <si>
+    <t>OR_StepFourElementDiv2</t>
+  </si>
+  <si>
+    <t>OR_StepFiveElement</t>
+  </si>
+  <si>
+    <t>OR_StepFiveElementMessage</t>
+  </si>
+  <si>
+    <t>OR_StepFiveElementDiv</t>
+  </si>
+  <si>
+    <t>OR_StepTwoElement</t>
+  </si>
+  <si>
+    <t>OR_StepTwoElementMessage</t>
+  </si>
+  <si>
+    <t>OR_StepTwoElementDiv0</t>
+  </si>
+  <si>
+    <t>OR_StepTwoElementDiv1</t>
+  </si>
+  <si>
+    <t>OR_StepTwoElementDiv2</t>
+  </si>
+  <si>
+    <t>OR_StepTwoElementDiv3</t>
   </si>
 </sst>
 </file>
@@ -989,8 +989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1800,7 +1800,7 @@
         <v>134</v>
       </c>
       <c r="B48" t="s">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="C48" t="s">
         <v>3</v>
@@ -1811,324 +1811,324 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B49" t="s">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="C49" t="s">
         <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B50" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="C50" t="s">
         <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>139</v>
+      </c>
+      <c r="B51" t="s">
+        <v>177</v>
+      </c>
+      <c r="C51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" t="s">
         <v>142</v>
-      </c>
-      <c r="B51" t="s">
-        <v>145</v>
-      </c>
-      <c r="C51" t="s">
-        <v>3</v>
-      </c>
-      <c r="D51" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>140</v>
+      </c>
+      <c r="B52" t="s">
+        <v>178</v>
+      </c>
+      <c r="C52" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" t="s">
         <v>143</v>
-      </c>
-      <c r="B52" t="s">
-        <v>146</v>
-      </c>
-      <c r="C52" t="s">
-        <v>3</v>
-      </c>
-      <c r="D52" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>141</v>
+      </c>
+      <c r="B53" t="s">
+        <v>179</v>
+      </c>
+      <c r="C53" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" t="s">
         <v>144</v>
-      </c>
-      <c r="B53" t="s">
-        <v>147</v>
-      </c>
-      <c r="C53" t="s">
-        <v>3</v>
-      </c>
-      <c r="D53" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B54" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="C54" t="s">
         <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B55" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="C55" t="s">
         <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B56" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="C56" t="s">
         <v>3</v>
       </c>
       <c r="D56" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B57" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="C57" t="s">
         <v>3</v>
       </c>
       <c r="D57" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B58" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="C58" t="s">
         <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B59" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="C59" t="s">
         <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B60" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="C60" t="s">
         <v>3</v>
       </c>
       <c r="D60" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B61" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C61" t="s">
         <v>3</v>
       </c>
       <c r="D61" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B62" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="C62" t="s">
         <v>3</v>
       </c>
       <c r="D62" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="B63" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="C63" t="s">
         <v>3</v>
       </c>
       <c r="D63" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="B64" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="C64" t="s">
         <v>3</v>
       </c>
       <c r="D64" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="B65" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="C65" t="s">
         <v>3</v>
       </c>
       <c r="D65" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="B66" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C66" t="s">
         <v>3</v>
       </c>
       <c r="D66" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="B67" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C67" t="s">
         <v>3</v>
       </c>
       <c r="D67" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="B68" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C68" t="s">
         <v>3</v>
       </c>
       <c r="D68" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="B69" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C69" t="s">
         <v>3</v>
       </c>
       <c r="D69" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="B70" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C70" t="s">
         <v>3</v>
       </c>
       <c r="D70" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="B71" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C71" t="s">
         <v>3</v>
       </c>
       <c r="D71" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
